--- a/client/src/test.xlsx
+++ b/client/src/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulu\final_supplychain\truffle_connect_web3\client\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB99D08F-2EBA-4EF7-B495-C18A84117CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A880A-38F1-4E74-B97A-EA3848C7F2CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6420" xr2:uid="{3401EAAF-3D37-41A1-A319-A578443A1F5D}"/>
   </bookViews>
@@ -25,27 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>流水號</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>數量</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>ProductName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdutPrice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鋁前△「待轉-CAF22050002」三發MY22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鋁後△「待轉-CAF22050002」三發MY22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鐵前△「待轉-CAA22060015」立志-TB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>鐵後△「待轉-CAA22060015」立志-TB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,66 +455,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C209CD59-3DC1-42B7-9510-FD03513C3C45}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
         <v>100</v>
       </c>
     </row>
